--- a/a2_q3.xlsx
+++ b/a2_q3.xlsx
@@ -1,20 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CJ\Academic\CMPT310\Ass\CMPT310\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273268FD-B709-4A03-A9A6-B31D64D55E88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="2145" yWindow="5160" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>probability</t>
   </si>
@@ -31,14 +47,122 @@
     <t>#unassign</t>
   </si>
   <si>
-    <t>fun fact</t>
+    <t>fun fact: team assignments</t>
+  </si>
+  <si>
+    <t>{0: 0, 1: 0, 2: 1, 3: 0, 4: 1, 5: 1, 6: 1, 7: 2, 8: 2, 9: 1, 10: 2, 11: 3, 12: 1, 13: 3, 14: 0, 15: 4, 16: 2, 17: 2, 18: 1, 19: 1, 20: 3, 21: 0, 22: 3, 23: 1, 24: 2, 25: 0, 26: 1, 27: 1, 28: 0, 29: 0}</t>
+  </si>
+  <si>
+    <t>{0: 0, 1: 0, 2: 1, 3: 2, 4: 0, 5: 1, 6: 0, 7: 2, 8: 2, 9: 1, 10: 3, 11: 0, 12: 3, 13: 0, 14: 4, 15: 4, 16: 1, 17: 1, 18: 3, 19: 2, 20: 5, 21: 4, 22: 5, 23: 3, 24: 5, 25: 6, 26: 4, 27: 2, 28: 6, 29: 5}</t>
+  </si>
+  <si>
+    <t>{0: 0, 1: 0, 2: 1, 3: 0, 4: 1, 5: 2, 6: 1, 7: 3, 8: 2, 9: 3, 10: 4, 11: 0, 12: 3, 13: 4, 14: 2, 15: 5, 16: 1, 17: 0, 18: 6, 19: 5, 20: 4, 21: 7, 22: 2, 23: 0, 24: 3, 25: 5, 26: 5, 27: 7, 28: 6, 29: 8}</t>
+  </si>
+  <si>
+    <t>{0: 0, 1: 0, 2: 1, 3: 2, 4: 1, 5: 0, 6: 2, 7: 3, 8: 3, 9: 1, 10: 4, 11: 5, 12: 2, 13: 6, 14: 3, 15: 1, 16: 5, 17: 4, 18: 1, 19: 4, 20: 6, 21: 6, 22: 5, 23: 7, 24: 0, 25: 3, 26: 8, 27: 5, 28: 7, 29: 8}</t>
+  </si>
+  <si>
+    <t>{0: 0, 1: 1, 2: 2, 3: 3, 4: 4, 5: 5, 6: 6, 7: 0, 8: 5, 9: 3, 10: 3, 11: 6, 12: 7, 13: 2, 14: 4, 15: 8, 16: 1, 17: 0, 18: 9, 19: 9, 20: 6, 21: 10, 22: 11, 23: 10, 24: 7, 25: 12, 26: 13, 27: 2, 28: 11, 29: 14}</t>
+  </si>
+  <si>
+    <t>{0: 0, 1: 0, 2: 1, 3: 0, 4: 0, 5: 2, 6: 0, 7: 1, 8: 3, 9: 2, 10: 1, 11: 2, 12: 2, 13: 0, 14: 0, 15: 1, 16: 3, 17: 4, 18: 1, 19: 1, 20: 2, 21: 1, 22: 4, 23: 3, 24: 1, 25: 2, 26: 5, 27: 1, 28: 3, 29: 0}</t>
+  </si>
+  <si>
+    <t>{0: 0, 1: 0, 2: 1, 3: 2, 4: 0, 5: 1, 6: 0, 7: 2, 8: 1, 9: 0, 10: 2, 11: 1, 12: 3, 13: 1, 14: 4, 15: 0, 16: 4, 17: 0, 18: 3, 19: 5, 20: 0, 21: 3, 22: 4, 23: 2, 24: 3, 25: 6, 26: 5, 27: 5, 28: 7, 29: 3}</t>
+  </si>
+  <si>
+    <t>{0: 0, 1: 1, 2: 2, 3: 0, 4: 1, 5: 2, 6: 0, 7: 1, 8: 1, 9: 3, 10: 3, 11: 1, 12: 4, 13: 4, 14: 0, 15: 1, 16: 3, 17: 5, 18: 3, 19: 5, 20: 4, 21: 6, 22: 2, 23: 7, 24: 7, 25: 4, 26: 6, 27: 8, 28: 8, 29: 8}</t>
+  </si>
+  <si>
+    <t>{0: 0, 1: 1, 2: 2, 3: 1, 4: 0, 5: 1, 6: 2, 7: 0, 8: 3, 9: 4, 10: 5, 11: 0, 12: 3, 13: 4, 14: 3, 15: 5, 16: 2, 17: 5, 18: 6, 19: 6, 20: 7, 21: 7, 22: 6, 23: 7, 24: 8, 25: 9, 26: 7, 27: 9, 28: 1, 29: 1}</t>
+  </si>
+  <si>
+    <t>{0: 0, 1: 0, 2: 1, 3: 2, 4: 3, 5: 4, 6: 3, 7: 1, 8: 2, 9: 5, 10: 6, 11: 1, 12: 6, 13: 7, 14: 7, 15: 4, 16: 5, 17: 0, 18: 8, 19: 9, 20: 10, 21: 2, 22: 8, 23: 11, 24: 6, 25: 8, 26: 4, 27: 12, 28: 9, 29: 12}</t>
+  </si>
+  <si>
+    <t>{0: 0, 1: 0, 2: 0, 3: 0, 4: 0, 5: 0, 6: 0, 7: 1, 8: 2, 9: 0, 10: 1, 11: 1, 12: 2, 13: 1, 14: 3, 15: 1, 16: 2, 17: 2, 18: 1, 19: 2, 20: 4, 21: 3, 22: 0, 23: 2, 24: 0, 25: 2, 26: 2, 27: 0, 28: 3, 29: 3}</t>
+  </si>
+  <si>
+    <t>{0: 0, 1: 0, 2: 0, 3: 1, 4: 2, 5: 0, 6: 1, 7: 1, 8: 1, 9: 0, 10: 2, 11: 2, 12: 3, 13: 0, 14: 3, 15: 1, 16: 4, 17: 4, 18: 3, 19: 3, 20: 2, 21: 4, 22: 1, 23: 3, 24: 5, 25: 0, 26: 6, 27: 5, 28: 3, 29: 2}</t>
+  </si>
+  <si>
+    <t>{0: 0, 1: 0, 2: 1, 3: 1, 4: 0, 5: 2, 6: 0, 7: 3, 8: 2, 9: 4, 10: 2, 11: 2, 12: 5, 13: 0, 14: 1, 15: 4, 16: 3, 17: 5, 18: 3, 19: 6, 20: 4, 21: 7, 22: 2, 23: 5, 24: 8, 25: 7, 26: 7, 27: 1, 28: 7, 29: 6}</t>
+  </si>
+  <si>
+    <t>{0: 0, 1: 1, 2: 0, 3: 2, 4: 0, 5: 2, 6: 1, 7: 1, 8: 3, 9: 4, 10: 5, 11: 6, 12: 4, 13: 5, 14: 0, 15: 7, 16: 2, 17: 8, 18: 3, 19: 6, 20: 7, 21: 9, 22: 2, 23: 10, 24: 9, 25: 9, 26: 5, 27: 3, 28: 11, 29: 8}</t>
+  </si>
+  <si>
+    <t>{0: 0, 1: 1, 2: 0, 3: 2, 4: 3, 5: 1, 6: 3, 7: 4, 8: 5, 9: 6, 10: 7, 11: 5, 12: 2, 13: 4, 14: 8, 15: 2, 16: 9, 17: 6, 18: 1, 19: 8, 20: 9, 21: 0, 22: 10, 23: 11, 24: 11, 25: 3, 26: 2, 27: 12, 28: 13, 29: 5}</t>
+  </si>
+  <si>
+    <t>{0: 0, 1: 0, 2: 0, 3: 0, 4: 0, 5: 1, 6: 1, 7: 0, 8: 2, 9: 2, 10: 3, 11: 1, 12: 1, 13: 3, 14: 0, 15: 1, 16: 3, 17: 0, 18: 0, 19: 1, 20: 1, 21: 2, 22: 0, 23: 2, 24: 1, 25: 2, 26: 2, 27: 2, 28: 3, 29: 4}</t>
+  </si>
+  <si>
+    <t>{0: 0, 1: 0, 2: 1, 3: 0, 4: 1, 5: 2, 6: 2, 7: 1, 8: 0, 9: 1, 10: 1, 11: 3, 12: 1, 13: 3, 14: 3, 15: 3, 16: 3, 17: 2, 18: 4, 19: 3, 20: 0, 21: 4, 22: 5, 23: 2, 24: 2, 25: 5, 26: 4, 27: 0, 28: 2, 29: 6}</t>
+  </si>
+  <si>
+    <t>{0: 0, 1: 0, 2: 1, 3: 2, 4: 1, 5: 2, 6: 3, 7: 0, 8: 2, 9: 4, 10: 1, 11: 4, 12: 3, 13: 5, 14: 6, 15: 3, 16: 0, 17: 1, 18: 6, 19: 7, 20: 5, 21: 4, 22: 1, 23: 0, 24: 1, 25: 6, 26: 8, 27: 2, 28: 5, 29: 5}</t>
+  </si>
+  <si>
+    <t>{0: 0, 1: 1, 2: 0, 3: 2, 4: 3, 5: 0, 6: 1, 7: 2, 8: 4, 9: 4, 10: 2, 11: 5, 12: 6, 13: 7, 14: 6, 15: 8, 16: 9, 17: 1, 18: 3, 19: 8, 20: 7, 21: 3, 22: 2, 23: 10, 24: 4, 25: 8, 26: 10, 27: 6, 28: 5, 29: 9}</t>
+  </si>
+  <si>
+    <t>{0: 0, 1: 1, 2: 2, 3: 3, 4: 0, 5: 4, 6: 1, 7: 3, 8: 2, 9: 5, 10: 1, 11: 6, 12: 7, 13: 8, 14: 9, 15: 10, 16: 4, 17: 0, 18: 5, 19: 11, 20: 12, 21: 11, 22: 13, 23: 5, 24: 14, 25: 0, 26: 9, 27: 5, 28: 13, 29: 2}</t>
+  </si>
+  <si>
+    <t>{0: 0, 1: 0, 2: 0, 3: 1, 4: 0, 5: 1, 6: 2, 7: 1, 8: 2, 9: 0, 10: 0, 11: 0, 12: 2, 13: 0, 14: 3, 15: 4, 16: 1, 17: 3, 18: 0, 19: 3, 20: 1, 21: 1, 22: 2, 23: 3, 24: 1, 25: 4, 26: 2, 27: 5, 28: 0, 29: 3}</t>
+  </si>
+  <si>
+    <t>{0: 0, 1: 0, 2: 1, 3: 0, 4: 1, 5: 2, 6: 0, 7: 2, 8: 0, 9: 1, 10: 3, 11: 1, 12: 0, 13: 3, 14: 4, 15: 3, 16: 4, 17: 1, 18: 3, 19: 5, 20: 5, 21: 2, 22: 4, 23: 2, 24: 6, 25: 4, 26: 6, 27: 3, 28: 7, 29: 6}</t>
+  </si>
+  <si>
+    <t>{0: 0, 1: 0, 2: 0, 3: 1, 4: 2, 5: 3, 6: 1, 7: 1, 8: 2, 9: 4, 10: 5, 11: 2, 12: 3, 13: 1, 14: 4, 15: 6, 16: 7, 17: 1, 18: 5, 19: 8, 20: 6, 21: 9, 22: 6, 23: 5, 24: 3, 25: 3, 26: 0, 27: 7, 28: 4, 29: 6}</t>
+  </si>
+  <si>
+    <t>{0: 0, 1: 1, 2: 0, 3: 2, 4: 0, 5: 1, 6: 3, 7: 3, 8: 4, 9: 5, 10: 1, 11: 4, 12: 5, 13: 6, 14: 6, 15: 2, 16: 7, 17: 5, 18: 8, 19: 5, 20: 2, 21: 9, 22: 7, 23: 2, 24: 1, 25: 10, 26: 9, 27: 4, 28: 11, 29: 8}</t>
+  </si>
+  <si>
+    <t>{0: 0, 1: 0, 2: 1, 3: 2, 4: 2, 5: 1, 6: 3, 7: 4, 8: 3, 9: 4, 10: 5, 11: 6, 12: 5, 13: 7, 14: 0, 15: 7, 16: 3, 17: 8, 18: 4, 19: 9, 20: 6, 21: 10, 22: 6, 23: 10, 24: 11, 25: 1, 26: 5, 27: 8, 28: 9, 29: 12}</t>
+  </si>
+  <si>
+    <t>Avg#Teams</t>
+  </si>
+  <si>
+    <t>AvgRunTime</t>
+  </si>
+  <si>
+    <t>Avg Assign</t>
+  </si>
+  <si>
+    <t>Avg Unassign</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>% Team Deviation from Avg</t>
+  </si>
+  <si>
+    <t>% Run Time Deviation from Avg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,9 +197,1252 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> Values</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg#Teams</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$29:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$29:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CC27-494B-8284-BFAE79EACEA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AvgRunTime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$29:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$29:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.5936126708984374E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1934242248535155E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1753749847412113E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5837841033935547E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5803737640380859E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CC27-494B-8284-BFAE79EACEA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1095838480"/>
+        <c:axId val="1086413040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1095838480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1086413040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1086413040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1095838480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3771900</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{619A6756-47AF-46B1-9FCF-156D7105CC8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -121,7 +1488,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -153,9 +1520,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -187,6 +1572,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -362,14 +1765,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="165.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -386,10 +1801,16 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -397,39 +1818,55 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.003952264785766602</v>
+        <v>2.990961074829102E-3</v>
       </c>
       <c r="D2">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E2">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <f>ABS(B2-$B$38)/$B$38*100</f>
+        <v>52.153110047846887</v>
+      </c>
+      <c r="G2">
+        <f>ABS(C2-$C$38)/$C$38*100</f>
+        <v>53.450351246691987</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.2</v>
       </c>
       <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>3.9892196655273438E-3</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <f>ABS(B3-$B$38)/$B$38*100</f>
+        <v>28.229665071770331</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G26" si="0">ABS(C3-$C$38)/$C$38*100</f>
+        <v>37.91401172257077</v>
+      </c>
+      <c r="H3" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>0.005979537963867188</v>
-      </c>
-      <c r="D3">
-        <v>120</v>
-      </c>
-      <c r="E3">
-        <v>90</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.3</v>
       </c>
@@ -437,99 +1874,139 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.009974002838134766</v>
+        <v>5.9840679168701172E-3</v>
       </c>
       <c r="D4">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E4">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <f t="shared" ref="F4:F26" si="1">ABS(B4-$B$38)/$B$38*100</f>
+        <v>4.3062200956937735</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>6.8673069701651848</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.4</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>0.0110011100769043</v>
+        <v>8.9762210845947266E-3</v>
       </c>
       <c r="D5">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E5">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>4.3062200956937735</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>39.70089485159771</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.5</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>0.01294422149658203</v>
+        <v>1.097202301025391E-2</v>
       </c>
       <c r="D6">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E6">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>67.464114832535898</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>70.762442058767263</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.1</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>0.003987550735473633</v>
+        <v>2.9911994934082031E-3</v>
       </c>
       <c r="D7">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E7">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>40.191387559808604</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>53.44664063300101</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.2</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>0.006020307540893555</v>
+        <v>4.9872398376464844E-3</v>
       </c>
       <c r="D8">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E8">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>16.267942583732051</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>22.381382812140536</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.3</v>
       </c>
@@ -537,39 +2014,55 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>0.007977008819580078</v>
+        <v>6.9811344146728524E-3</v>
       </c>
       <c r="D9">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E9">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>4.3062200956937735</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>8.6504794855011564</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.4</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>0.01097273826599121</v>
+        <v>8.9762210845947266E-3</v>
       </c>
       <c r="D10">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E10">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>7.6555023923445038</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>39.70089485159771</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.5</v>
       </c>
@@ -577,39 +2070,55 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>0.01096892356872559</v>
+        <v>9.9725723266601563E-3</v>
       </c>
       <c r="D11">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E11">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>43.540669856459338</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>55.207549466191111</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.1</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>0.004953861236572266</v>
+        <v>1.994848251342773E-3</v>
       </c>
       <c r="D12">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E12">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>52.153110047846887</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>68.953295247594411</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.2</v>
       </c>
@@ -617,19 +2126,27 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>0.005995512008666992</v>
+        <v>6.9878101348876953E-3</v>
       </c>
       <c r="D13">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E13">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>28.229665071770331</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>8.7543766688485025</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.3</v>
       </c>
@@ -637,39 +2154,55 @@
         <v>8</v>
       </c>
       <c r="C14">
-        <v>0.01196932792663574</v>
+        <v>5.9778690338134774E-3</v>
       </c>
       <c r="D14">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E14">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>4.3062200956937735</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>6.9637829261305777</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.4</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C15">
-        <v>0.01001143455505371</v>
+        <v>7.9791545867919922E-3</v>
       </c>
       <c r="D15">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E15">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>31.578947368421062</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>24.183108395931381</v>
+      </c>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.5</v>
       </c>
@@ -677,19 +2210,27 @@
         <v>13</v>
       </c>
       <c r="C16">
-        <v>0.01192975044250488</v>
+        <v>8.9733600616455078E-3</v>
       </c>
       <c r="D16">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E16">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>55.502392344497622</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>39.656367487305985</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.1</v>
       </c>
@@ -697,19 +2238,27 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>0.003986120223999023</v>
+        <v>1.994848251342773E-3</v>
       </c>
       <c r="D17">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E17">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>52.153110047846887</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>68.953295247594411</v>
+      </c>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.2</v>
       </c>
@@ -717,39 +2266,55 @@
         <v>6</v>
       </c>
       <c r="C18">
-        <v>0.005985260009765625</v>
+        <v>4.9877166748046884E-3</v>
       </c>
       <c r="D18">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E18">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>28.229665071770331</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>22.373961584758568</v>
+      </c>
+      <c r="H18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.3</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19">
-        <v>0.008977174758911133</v>
+        <v>5.9831142425537109E-3</v>
       </c>
       <c r="D19">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E19">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>4.3062200956937735</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>6.8821494249290946</v>
+      </c>
+      <c r="H19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.4</v>
       </c>
@@ -757,59 +2322,83 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>0.009974479675292969</v>
+        <v>8.9762210845947266E-3</v>
       </c>
       <c r="D20">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E20">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>19.617224880382782</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>39.70089485159771</v>
+      </c>
+      <c r="H20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.5</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C21">
-        <v>0.01196599006652832</v>
+        <v>9.0074539184570313E-3</v>
       </c>
       <c r="D21">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E21">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>67.464114832535898</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>40.186985245115714</v>
+      </c>
+      <c r="H21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.1</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>0.002974987030029297</v>
+        <v>2.9962062835693359E-3</v>
       </c>
       <c r="D22">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E22">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>40.191387559808604</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>53.368717745490493</v>
+      </c>
+      <c r="H22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.2</v>
       </c>
@@ -817,19 +2406,27 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>0.006972551345825195</v>
+        <v>5.0151348114013672E-3</v>
       </c>
       <c r="D23">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E23">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>16.267942583732051</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>21.947241010296214</v>
+      </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.3</v>
       </c>
@@ -837,19 +2434,27 @@
         <v>9</v>
       </c>
       <c r="C24">
-        <v>0.007979154586791992</v>
+        <v>5.9506893157958976E-3</v>
       </c>
       <c r="D24">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E24">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>7.6555023923445038</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>7.386792886901997</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.4</v>
       </c>
@@ -857,19 +2462,27 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <v>0.0109708309173584</v>
+        <v>8.0111026763916016E-3</v>
       </c>
       <c r="D25">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E25">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <f t="shared" si="1"/>
+        <v>31.578947368421062</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>24.680330630522317</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.5</v>
       </c>
@@ -877,19 +2490,246 @@
         <v>12</v>
       </c>
       <c r="C26">
-        <v>0.01096963882446289</v>
+        <v>8.9764595031738281E-3</v>
       </c>
       <c r="D26">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="E26">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>43.540669856459338</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>39.704605465288687</v>
+      </c>
+      <c r="H26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.1</v>
+      </c>
+      <c r="B29">
+        <f>SUM(B2,B7,B12,B17,B22)/5</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C29">
+        <f>SUM(C2,C7,C12,C17,C22)/5</f>
+        <v>2.5936126708984374E-3</v>
+      </c>
+      <c r="D29">
+        <f>SUM(D2,D7,D12,D17,D22)/5</f>
+        <v>60</v>
+      </c>
+      <c r="E29">
+        <f>SUM(E2,E7,E12,E17,E22)/5</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f>A29+0.1</f>
+        <v>0.2</v>
+      </c>
+      <c r="B30">
+        <f>SUM(B3,B8,B13,B18,B23)/5</f>
+        <v>6.4</v>
+      </c>
+      <c r="C30">
+        <f>SUM(C3,C8,C13,C18,C23)/5</f>
+        <v>5.1934242248535155E-3</v>
+      </c>
+      <c r="D30">
+        <f>SUM(D3,D8,D13,D18,D23)/5</f>
+        <v>60</v>
+      </c>
+      <c r="E30">
+        <f>SUM(E3,E8,E13,E18,E23)/5</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" ref="A31:A33" si="2">A30+0.1</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="B31">
+        <f>SUM(B4,B9,B14,B19,B24)/5</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C31">
+        <f>SUM(C4,C9,C14,C19,C24)/5</f>
+        <v>6.1753749847412113E-3</v>
+      </c>
+      <c r="D31">
+        <f>SUM(D4,D9,D14,D19,D24)/5</f>
+        <v>60</v>
+      </c>
+      <c r="E31">
+        <f>SUM(E4,E9,E14,E19,E24)/5</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="B32">
+        <f>SUM(B5,B10,B15,B20,B25)/5</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C32">
+        <f>SUM(C5,C10,C15,C20,C25)/5</f>
+        <v>8.5837841033935547E-3</v>
+      </c>
+      <c r="D32">
+        <f>SUM(D5,D10,D15,D20,D25)/5</f>
+        <v>60</v>
+      </c>
+      <c r="E32">
+        <f>SUM(E5,E10,E15,E20,E25)/5</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="B33">
+        <f>SUM(B6,B11,B16,B21,B26)/5</f>
+        <v>13</v>
+      </c>
+      <c r="C33">
+        <f>SUM(C6,C11,C16,C21,C26)/5</f>
+        <v>9.5803737640380859E-3</v>
+      </c>
+      <c r="D33">
+        <f>SUM(D6,D11,D16,D21,D26)/5</f>
+        <v>60</v>
+      </c>
+      <c r="E33">
+        <f>SUM(E6,E11,E16,E21,E26)/5</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <f>MIN(B2:B26)</f>
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <f>MIN(C2:C26)</f>
+        <v>1.994848251342773E-3</v>
+      </c>
+      <c r="D35">
+        <f>MIN(D2:D26)</f>
+        <v>60</v>
+      </c>
+      <c r="E35">
+        <f>MIN(E2:E26)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <f>MAX(B2:B26)</f>
+        <v>14</v>
+      </c>
+      <c r="C36">
+        <f>MAX(C2:C26)</f>
+        <v>1.097202301025391E-2</v>
+      </c>
+      <c r="D36">
+        <f>MAX(D2:D26)</f>
+        <v>60</v>
+      </c>
+      <c r="E36">
+        <f>MAX(E2:E26)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <f>MEDIAN(B2:B26)</f>
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <f>MEDIAN(C2:C26)</f>
+        <v>5.9840679168701172E-3</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37:E37" si="3">MEDIAN(D2:D26)</f>
+        <v>60</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <f>AVERAGE(B2:B26)</f>
+        <v>8.36</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38:E38" si="4">AVERAGE(C2:C26)</f>
+        <v>6.4253139495849612E-3</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="4"/>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B26">
+    <cfRule type="top10" dxfId="3" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="4" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C26">
+    <cfRule type="top10" dxfId="1" priority="1" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="0" priority="2" rank="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>